--- a/20180122-vikes_viewers/builds/development/data/maindata.xlsx
+++ b/20180122-vikes_viewers/builds/development/data/maindata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>tab</t>
   </si>
@@ -59,9 +59,6 @@
     <t>7:07 — FG puts Eagles up 24-7</t>
   </si>
   <si>
-    <t>7:28 — Eagles score on opening drive of half</t>
-  </si>
-  <si>
     <t>7:41 — Apparent Vikes TD overruled</t>
   </si>
   <si>
@@ -81,6 +78,18 @@
   </si>
   <si>
     <t>viewership</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
+  <si>
+    <t>7:28 — Eagles score to open second half</t>
+  </si>
+  <si>
+    <t>households</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -88,8 +97,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm;@"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -147,8 +156,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,10 +224,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -240,6 +255,9 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -267,6 +285,9 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,7 +620,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A28" sqref="A19:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -610,10 +631,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -623,8 +647,8 @@
       <c r="B2">
         <v>842704</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+      <c r="C2" s="3">
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -634,8 +658,8 @@
       <c r="B3">
         <v>969024</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="C3" s="3">
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -645,8 +669,8 @@
       <c r="B4">
         <v>1029588</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="C4" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -656,8 +680,8 @@
       <c r="B5">
         <v>1033048</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+      <c r="C5" s="3">
+        <v>0.76041666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -667,8 +691,8 @@
       <c r="B6">
         <v>1017475</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="3">
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -678,8 +702,8 @@
       <c r="B7">
         <v>1022666</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+      <c r="C7" s="3">
+        <v>0.78125</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -689,8 +713,8 @@
       <c r="B8">
         <v>1007092</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
+      <c r="C8" s="3">
+        <v>0.79166666666666696</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -700,8 +724,8 @@
       <c r="B9">
         <v>960372</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
+      <c r="C9" s="3">
+        <v>0.80208333333333404</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -711,8 +735,8 @@
       <c r="B10">
         <v>970754</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
+      <c r="C10" s="3">
+        <v>0.812500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -722,6 +746,9 @@
       <c r="B11">
         <v>925764</v>
       </c>
+      <c r="C11" s="3">
+        <v>0.82291666666666696</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5">
@@ -730,6 +757,9 @@
       <c r="B12">
         <v>744072</v>
       </c>
+      <c r="C12" s="3">
+        <v>0.83333333333333404</v>
+      </c>
       <c r="J12" s="3">
         <v>0.72916666666666663</v>
       </c>
@@ -744,6 +774,9 @@
       <c r="B13">
         <v>794254</v>
       </c>
+      <c r="C13" s="3">
+        <v>0.843750000000001</v>
+      </c>
       <c r="J13">
         <v>545</v>
       </c>
@@ -758,6 +791,9 @@
       <c r="B14">
         <v>721577</v>
       </c>
+      <c r="C14" s="3">
+        <v>0.85416666666666796</v>
+      </c>
       <c r="J14">
         <v>600</v>
       </c>
@@ -772,6 +808,9 @@
       <c r="B15">
         <v>228413</v>
       </c>
+      <c r="C15" s="3">
+        <v>0.86458333333333504</v>
+      </c>
       <c r="D15" s="5">
         <v>43303.742361111108</v>
       </c>
@@ -793,7 +832,7 @@
         <v>1017475</v>
       </c>
     </row>
-    <row r="17" spans="4:11">
+    <row r="17" spans="1:11">
       <c r="D17" s="5">
         <v>43303.768055555556</v>
       </c>
@@ -804,7 +843,7 @@
         <v>1022666</v>
       </c>
     </row>
-    <row r="18" spans="4:11">
+    <row r="18" spans="1:11">
       <c r="D18" s="5">
         <v>43303.78402777778</v>
       </c>
@@ -815,7 +854,10 @@
         <v>1007092</v>
       </c>
     </row>
-    <row r="19" spans="4:11">
+    <row r="19" spans="1:11">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D19" s="5">
         <v>43303.796527777777</v>
       </c>
@@ -826,7 +868,10 @@
         <v>960372</v>
       </c>
     </row>
-    <row r="20" spans="4:11">
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="5">
         <v>43303.820138888892</v>
       </c>
@@ -837,7 +882,10 @@
         <v>970754</v>
       </c>
     </row>
-    <row r="21" spans="4:11">
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="5">
         <v>43303.831250000003</v>
       </c>
@@ -848,7 +896,10 @@
         <v>925764</v>
       </c>
     </row>
-    <row r="22" spans="4:11">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D22" s="5">
         <v>43303.850694444445</v>
       </c>
@@ -859,7 +910,10 @@
         <v>744072</v>
       </c>
     </row>
-    <row r="23" spans="4:11">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="J23">
         <v>815</v>
@@ -868,7 +922,10 @@
         <v>794254</v>
       </c>
     </row>
-    <row r="24" spans="4:11">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="J24">
         <v>830</v>
@@ -877,7 +934,10 @@
         <v>721577</v>
       </c>
     </row>
-    <row r="25" spans="4:11">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="J25">
         <v>845</v>
@@ -886,13 +946,22 @@
         <v>228413</v>
       </c>
     </row>
-    <row r="26" spans="4:11">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="4:11">
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="4:11">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="5"/>
     </row>
   </sheetData>
@@ -942,7 +1011,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -982,18 +1051,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
